--- a/app/application/views/rpt/ru/doc/zakaz.xlsx
+++ b/app/application/views/rpt/ru/doc/zakaz.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -646,14 +646,14 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
@@ -667,7 +667,7 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
@@ -680,7 +680,7 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
